--- a/Benchmark/Notes.xlsx
+++ b/Benchmark/Notes.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adestefa\Documents\GitHub\SolarCruiserDose\Benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B4D104-4891-4E10-9ADC-BCDF7A2F58D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806391BD-1F5E-4231-AD98-22F829613C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{943ED2DD-2486-438A-8478-E50F6E133359}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{943ED2DD-2486-438A-8478-E50F6E133359}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="thin" sheetId="3" r:id="rId3"/>
+    <sheet name="thick" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>mm</t>
   </si>
@@ -52,6 +53,36 @@
   <si>
     <t>1E4 AL</t>
   </si>
+  <si>
+    <t>center (keV)</t>
+  </si>
+  <si>
+    <t>1E5 AL</t>
+  </si>
+  <si>
+    <t>1E6 AL</t>
+  </si>
+  <si>
+    <t>1E7 AL</t>
+  </si>
+  <si>
+    <t>1E8 AL</t>
+  </si>
+  <si>
+    <t>1E9 AL</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Al thickness (ang)</t>
+  </si>
+  <si>
+    <t>Energy (keV)</t>
+  </si>
 </sst>
 </file>
 
@@ -61,8 +92,16 @@
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,12 +135,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1517,7 +1563,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$F$2:$F$16</c:f>
+              <c:f>thin!$F$2:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1571,7 +1617,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$G$2:$G$16</c:f>
+              <c:f>thin!$G$2:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1819,6 +1865,2380 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>thick!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1E4 AL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>thick!$F$2:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>223.60679774997897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>591.6079783099616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>836.66002653407554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1414.2135623730951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2449.4897427831779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3464.1016151377544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4472.1359549995796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5477.2255750516615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6480.7406984078607</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8366.6002653407559</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14142.135623730952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24494.89742783178</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34641.016151377546</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44721.359549995796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54772.255750516611</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64807.406984078596</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83666.002653407559</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>122474.48713915891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>173205.08075688774</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>244948.97427831782</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>346410.16151377547</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>447213.59549995791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>thick!$M$2:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>63740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252880</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>428510</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>968910</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2184810</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3806010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5427210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7588810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10020610</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15154410</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37851210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99997210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>181057210</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>297243210</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>432343210</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>567443210</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>891683210</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1702283210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3242423210</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5809323210</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10402723210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15941823210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2EE7-403F-98E4-A166AAEB099D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>thick!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1E5 AL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>thick!$F$4:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>836.66002653407554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1414.2135623730951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2449.4897427831779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3464.1016151377544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4472.1359549995796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5477.2255750516615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6480.7406984078607</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8366.6002653407559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14142.135623730952</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24494.89742783178</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34641.016151377546</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44721.359549995796</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54772.255750516611</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64807.406984078596</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83666.002653407559</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>122474.48713915891</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>173205.08075688774</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>244948.97427831782</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>346410.16151377547</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>447213.59549995791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>thick!$N$4:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>313160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>799520</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3474500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5365900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7527500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9959300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15363300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38060100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100206100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>181266100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>297452100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>432552100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>567652100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>891892100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1702492100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3242632100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5809532100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10402932100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15942032100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2EE7-403F-98E4-A166AAEB099D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>thick!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1E6 AL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>thick!$F$7:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>3464.1016151377544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4472.1359549995796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5477.2255750516615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6480.7406984078607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8366.6002653407559</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14142.135623730952</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24494.89742783178</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34641.016151377546</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44721.359549995796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54772.255750516611</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64807.406984078596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83666.002653407559</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>122474.48713915891</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>173205.08075688774</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>244948.97427831782</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>346410.16151377547</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>447213.59549995791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>thick!$O$7:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2861400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4887900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6914400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9346200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14750200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37447000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99593000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180653000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>299541000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>434641000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>569741000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>893981000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1704581000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3244721000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5811621000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10405021000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15944121000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2EE7-403F-98E4-A166AAEB099D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>thick!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1E7 AL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>thick!$F$12:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>14142.135623730952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24494.89742783178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34641.016151377546</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44721.359549995796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54772.255750516611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64807.406984078596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83666.002653407559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>122474.48713915891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>173205.08075688774</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>244948.97427831782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>346410.16151377547</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>447213.59549995791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>thick!$P$12:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>29965000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96164000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174522000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>293410000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>428510000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>563610000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>887850000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1698450000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3130510000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5832510000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10425910000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15965010000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2EE7-403F-98E4-A166AAEB099D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>thick!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1E8 AL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>thick!$F$16:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>54772.255750516611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64807.406984078596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83666.002653407559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122474.48713915891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173205.08075688774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>244948.97427831782</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>346410.16151377547</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>447213.59549995791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>thick!$Q$16:$Q$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>353690000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>502300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>826540000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1799260000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3204300000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5906300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10364600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15903700000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2EE7-403F-98E4-A166AAEB099D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>thick!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1E9 AL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>thick!$F$21:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>244948.97427831782</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>346410.16151377547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>447213.59549995791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>thick!$R$21:$R$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5293200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9616400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15020400000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2EE7-403F-98E4-A166AAEB099D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>thick!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>thick!$F$2:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>223.60679774997897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>591.6079783099616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>836.66002653407554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1414.2135623730951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2449.4897427831779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3464.1016151377544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4472.1359549995796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5477.2255750516615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6480.7406984078607</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8366.6002653407559</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14142.135623730952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24494.89742783178</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34641.016151377546</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44721.359549995796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54772.255750516611</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64807.406984078596</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83666.002653407559</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>122474.48713915891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>173205.08075688774</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>244948.97427831782</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>346410.16151377547</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>447213.59549995791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>thick!$S$2:$S$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>63740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252880</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>428510</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>968910</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2184810</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3806010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5427210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7588810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10020610</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15154410</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37851210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99997210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>181057210</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>297243210</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>432343210</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>567443210</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>891683210</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1702283210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3242423210</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5809323210</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10402723210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15941823210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2EE7-403F-98E4-A166AAEB099D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="627800288"/>
+        <c:axId val="688611888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="627800288"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="688611888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="688611888"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627800288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13978980752405951"/>
+                  <c:y val="0.19192475940507436"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>215000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6F1-4FA3-AB06-C45E2FFBA7D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.37208530183727034"/>
+                  <c:y val="-1.4305555555555556E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$D$2:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>168000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>365000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>540000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6F1-4FA3-AB06-C45E2FFBA7D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.6476815398075247E-2"/>
+                  <c:y val="0.3051388888888889"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$8:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$E$8:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>680000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C6F1-4FA3-AB06-C45E2FFBA7D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="697187280"/>
+        <c:axId val="703495200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="697187280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703495200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="703495200"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="697187280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1939,6 +4359,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2972,6 +5472,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3568,16 +7100,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3585,6 +7117,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{367B880E-ABB3-4360-853D-EEBBA9B06083}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887769BA-9D5D-442B-9094-267E5DF544C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC8AB83-BB26-44E6-B326-49EA8535C6E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5933,8 +9547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31658729-500E-4E04-A0F9-A299607F5713}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6387,4 +10001,2176 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627F9513-9F65-4D13-8637-A3FA0F87B921}">
+  <dimension ref="A1:U24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="13" max="20" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="B2" s="1">
+        <f t="shared" ref="B2:B7" si="0">A2*10000000</f>
+        <v>10000</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C7" si="1">A2*(100/99-1)*10000000</f>
+        <v>101.01010101010166</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="7">
+        <f>SQRT(E2*E3)*1000</f>
+        <v>223.60679774997897</v>
+      </c>
+      <c r="G2" s="1">
+        <v>15000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1">
+        <f>G2*2.702+$B$2*2.321</f>
+        <v>63740</v>
+      </c>
+      <c r="N2" s="1" t="e">
+        <f>H2*2.702+$B$3*2.321</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O2" s="1" t="e">
+        <f>I2*2.702+$B$4*2.321</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P2" s="1" t="e">
+        <f>J2*2.702+$B$5*2.321</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q2" s="1" t="e">
+        <f>K2*2.702+$B$6*2.321</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R2" s="1" t="e">
+        <f>L2*2.702+$B$7*2.321</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S2" s="1">
+        <f>AVERAGE(M2)</f>
+        <v>63740</v>
+      </c>
+      <c r="T2" s="1">
+        <f>LOG10(F2)</f>
+        <v>2.3494850021680094</v>
+      </c>
+      <c r="U2" s="1">
+        <f>LOG10(S2)</f>
+        <v>4.8044120591377135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="1"/>
+        <v>1010.1010101010166</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F10" si="2">SQRT(E3*E4)*1000</f>
+        <v>591.6079783099616</v>
+      </c>
+      <c r="G3" s="1">
+        <v>85000</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f>J2</f>
+        <v>NA</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f>K2</f>
+        <v>NA</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f>L2</f>
+        <v>NA</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M23" si="3">G3*2.702+$B$2*2.321</f>
+        <v>252880</v>
+      </c>
+      <c r="N3" s="1" t="e">
+        <f t="shared" ref="N3:N23" si="4">H3*2.702+$B$3*2.321</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O3" s="1" t="e">
+        <f t="shared" ref="O3:O24" si="5">I3*2.702+$B$4*2.321</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P3" s="1" t="e">
+        <f t="shared" ref="P3:P24" si="6">J3*2.702+$B$5*2.321</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q3" s="1" t="e">
+        <f t="shared" ref="Q3:Q24" si="7">K3*2.702+$B$6*2.321</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R3" s="1" t="e">
+        <f t="shared" ref="R3:R24" si="8">L3*2.702+$B$7*2.321</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S23" si="9">AVERAGE(M3)</f>
+        <v>252880</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T23" si="10">LOG10(F3)</f>
+        <v>2.7720340221751378</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U23" si="11">LOG10(S3)</f>
+        <v>5.4029144828315232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="1"/>
+        <v>10101.010101010166</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="2"/>
+        <v>836.66002653407554</v>
+      </c>
+      <c r="G4" s="1">
+        <v>150000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" ref="J4:J11" si="12">J3</f>
+        <v>NA</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f t="shared" ref="K4:K15" si="13">K3</f>
+        <v>NA</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f t="shared" ref="L4:L20" si="14">L3</f>
+        <v>NA</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="3"/>
+        <v>428510</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="4"/>
+        <v>313160</v>
+      </c>
+      <c r="O4" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P4" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q4" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R4" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="9"/>
+        <v>428510</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="10"/>
+        <v>2.9225490200071285</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="11"/>
+        <v>5.6319609613680708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="1"/>
+        <v>101010.10101010166</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="2"/>
+        <v>1414.2135623730951</v>
+      </c>
+      <c r="G5" s="1">
+        <v>350000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>210000</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="3"/>
+        <v>968910</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="4"/>
+        <v>799520</v>
+      </c>
+      <c r="O5" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P5" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q5" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R5" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="9"/>
+        <v>968910</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="10"/>
+        <v>3.1505149978319906</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="11"/>
+        <v>5.9862834382286332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>100000000</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="1"/>
+        <v>1010101.0101010166</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <f>SQRT(E6*E7)*1000</f>
+        <v>2449.4897427831779</v>
+      </c>
+      <c r="G6" s="1">
+        <v>800000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>650000</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="3"/>
+        <v>2184810</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="4"/>
+        <v>1988400</v>
+      </c>
+      <c r="O6" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P6" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q6" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R6" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="9"/>
+        <v>2184810</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="10"/>
+        <v>3.3890756251918219</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="11"/>
+        <v>6.3394136749268437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>100</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>1000000000</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>10101010.101010166</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="2"/>
+        <v>3464.1016151377544</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>200000</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>3806010</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="4"/>
+        <v>3474500</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="5"/>
+        <v>2861400</v>
+      </c>
+      <c r="P7" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q7" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R7" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="9"/>
+        <v>3806010</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="10"/>
+        <v>3.5395906230238126</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="11"/>
+        <v>6.580469925028015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="2"/>
+        <v>4472.1359549995796</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1900000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>950000</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
+        <v>5427210</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>5365900</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="5"/>
+        <v>4887900</v>
+      </c>
+      <c r="P8" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q8" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R8" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="9"/>
+        <v>5427210</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="10"/>
+        <v>3.6505149978319906</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="11"/>
+        <v>6.7345766264581748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="2"/>
+        <v>5477.2255750516615</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2800000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2700000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1700000</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
+        <v>7588810</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="4"/>
+        <v>7527500</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="5"/>
+        <v>6914400</v>
+      </c>
+      <c r="P9" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q9" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R9" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="9"/>
+        <v>7588810</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="10"/>
+        <v>3.7385606273598313</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="11"/>
+        <v>6.8801736795908921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="2"/>
+        <v>6480.7406984078607</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3700000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3600000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="3"/>
+        <v>10020610</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="4"/>
+        <v>9959300</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="5"/>
+        <v>9346200</v>
+      </c>
+      <c r="P10" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q10" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R10" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="9"/>
+        <v>10020610</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="10"/>
+        <v>3.8116246451989504</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="11"/>
+        <v>7.0008941598117023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D11" s="5">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7">
+        <f>SQRT(E11*E12)*1000</f>
+        <v>8366.6002653407559</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5600000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5600000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4600000</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="3"/>
+        <v>15154410</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="4"/>
+        <v>15363300</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="5"/>
+        <v>14750200</v>
+      </c>
+      <c r="P11" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q11" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R11" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="9"/>
+        <v>15154410</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="10"/>
+        <v>3.9225490200071285</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="11"/>
+        <v>7.1805390328361272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12:F23" si="15">SQRT(E12*E13)*1000</f>
+        <v>14142.135623730952</v>
+      </c>
+      <c r="G12" s="1">
+        <v>14000000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>14000000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>13000000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="3"/>
+        <v>37851210</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="4"/>
+        <v>38060100</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="5"/>
+        <v>37447000</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="6"/>
+        <v>29965000</v>
+      </c>
+      <c r="Q12" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R12" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="9"/>
+        <v>37851210</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="10"/>
+        <v>4.1505149978319906</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="11"/>
+        <v>7.5780797672686848</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="15"/>
+        <v>24494.89742783178</v>
+      </c>
+      <c r="G13" s="1">
+        <v>37000000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>37000000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>36000000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>27000000</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="3"/>
+        <v>99997210</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="4"/>
+        <v>100206100</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="5"/>
+        <v>99593000</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="6"/>
+        <v>96164000</v>
+      </c>
+      <c r="Q13" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R13" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="9"/>
+        <v>99997210</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="10"/>
+        <v>4.3890756251918219</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="11"/>
+        <v>7.9999878830149225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <v>30</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="15"/>
+        <v>34641.016151377546</v>
+      </c>
+      <c r="G14" s="1">
+        <v>67000000</v>
+      </c>
+      <c r="H14" s="1">
+        <f>G14</f>
+        <v>67000000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>66000000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>56000000</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="3"/>
+        <v>181057210</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="4"/>
+        <v>181266100</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="5"/>
+        <v>180653000</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="6"/>
+        <v>174522000</v>
+      </c>
+      <c r="Q14" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R14" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="9"/>
+        <v>181057210</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="10"/>
+        <v>4.5395906230238126</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="11"/>
+        <v>8.2578158238278032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7">
+        <f>SQRT(E15*E16)*1000</f>
+        <v>44721.359549995796</v>
+      </c>
+      <c r="G15" s="1">
+        <v>110000000</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" ref="H15:J23" si="16">G15</f>
+        <v>110000000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>110000000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="3"/>
+        <v>297243210</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="4"/>
+        <v>297452100</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="5"/>
+        <v>299541000</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="6"/>
+        <v>293410000</v>
+      </c>
+      <c r="Q15" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R15" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="9"/>
+        <v>297243210</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="10"/>
+        <v>4.6505149978319906</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="11"/>
+        <v>8.4731119427080124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1">
+        <v>50</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="15"/>
+        <v>54772.255750516611</v>
+      </c>
+      <c r="G16" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="16"/>
+        <v>160000000</v>
+      </c>
+      <c r="I16" s="1">
+        <f>H16</f>
+        <v>160000000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="K16" s="1">
+        <v>45000000</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="3"/>
+        <v>432343210</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="4"/>
+        <v>432552100</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="5"/>
+        <v>434641000</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="6"/>
+        <v>428510000</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="7"/>
+        <v>353690000</v>
+      </c>
+      <c r="R16" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="9"/>
+        <v>432343210</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="10"/>
+        <v>4.7385606273598313</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="11"/>
+        <v>8.6358286427202504</v>
+      </c>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1">
+        <v>60</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="15"/>
+        <v>64807.406984078596</v>
+      </c>
+      <c r="G17" s="1">
+        <v>210000000</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="16"/>
+        <v>210000000</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="16"/>
+        <v>210000000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="K17" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="3"/>
+        <v>567443210</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="4"/>
+        <v>567652100</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="5"/>
+        <v>569741000</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="6"/>
+        <v>563610000</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="7"/>
+        <v>502300000</v>
+      </c>
+      <c r="R17" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="9"/>
+        <v>567443210</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="10"/>
+        <v>4.8116246451989504</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="11"/>
+        <v>8.7539224036312255</v>
+      </c>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1">
+        <v>70</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="15"/>
+        <v>83666.002653407559</v>
+      </c>
+      <c r="G18" s="1">
+        <v>330000000</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="16"/>
+        <v>330000000</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="16"/>
+        <v>330000000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>320000000</v>
+      </c>
+      <c r="K18" s="1">
+        <v>220000000</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="3"/>
+        <v>891683210</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="4"/>
+        <v>891892100</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="5"/>
+        <v>893981000</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="6"/>
+        <v>887850000</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="7"/>
+        <v>826540000</v>
+      </c>
+      <c r="R18" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="9"/>
+        <v>891683210</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="10"/>
+        <v>4.9225490200071285</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="11"/>
+        <v>8.9502105891460673</v>
+      </c>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="15"/>
+        <v>122474.48713915891</v>
+      </c>
+      <c r="G19" s="1">
+        <v>630000000</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="16"/>
+        <v>630000000</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="16"/>
+        <v>630000000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>620000000</v>
+      </c>
+      <c r="K19" s="1">
+        <v>580000000</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="3"/>
+        <v>1702283210</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="4"/>
+        <v>1702492100</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="5"/>
+        <v>1704581000</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="6"/>
+        <v>1698450000</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="7"/>
+        <v>1799260000</v>
+      </c>
+      <c r="R19" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="9"/>
+        <v>1702283210</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="10"/>
+        <v>5.0880456295278407</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="11"/>
+        <v>9.2310318156240942</v>
+      </c>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1">
+        <v>150</v>
+      </c>
+      <c r="F20" s="7">
+        <f>SQRT(E20*E21)*1000</f>
+        <v>173205.08075688774</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1200000000</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="16"/>
+        <v>1200000000</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="16"/>
+        <v>1200000000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1150000000</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1100000000</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="3"/>
+        <v>3242423210</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="4"/>
+        <v>3242632100</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="5"/>
+        <v>3244721000</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="6"/>
+        <v>3130510000</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="7"/>
+        <v>3204300000</v>
+      </c>
+      <c r="R20" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="9"/>
+        <v>3242423210</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="10"/>
+        <v>5.2385606273598313</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="11"/>
+        <v>9.5108696995230666</v>
+      </c>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1">
+        <v>200</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="15"/>
+        <v>244948.97427831782</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2150000000</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="16"/>
+        <v>2150000000</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="16"/>
+        <v>2150000000</v>
+      </c>
+      <c r="J21" s="1">
+        <f>I21</f>
+        <v>2150000000</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2100000000</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1100000000</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="3"/>
+        <v>5809323210</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="4"/>
+        <v>5809532100</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="5"/>
+        <v>5811621000</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="6"/>
+        <v>5832510000</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="7"/>
+        <v>5906300000</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="8"/>
+        <v>5293200000</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="9"/>
+        <v>5809323210</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="10"/>
+        <v>5.3890756251918219</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="11"/>
+        <v>9.764125539742647</v>
+      </c>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1">
+        <v>300</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="15"/>
+        <v>346410.16151377547</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3850000000</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="16"/>
+        <v>3850000000</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="16"/>
+        <v>3850000000</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="16"/>
+        <v>3850000000</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3750000000</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2700000000</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="3"/>
+        <v>10402723210</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="4"/>
+        <v>10402932100</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="5"/>
+        <v>10405021000</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="6"/>
+        <v>10425910000</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="7"/>
+        <v>10364600000</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="8"/>
+        <v>9616400000</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="9"/>
+        <v>10402723210</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="10"/>
+        <v>5.5395906230238126</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="11"/>
+        <v>10.017147043170228</v>
+      </c>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1">
+        <v>400</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="15"/>
+        <v>447213.59549995791</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5900000000</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="16"/>
+        <v>5900000000</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="16"/>
+        <v>5900000000</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="16"/>
+        <v>5900000000</v>
+      </c>
+      <c r="K23" s="1">
+        <v>5800000000</v>
+      </c>
+      <c r="L23" s="1">
+        <v>4700000000</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="3"/>
+        <v>15941823210</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="4"/>
+        <v>15942032100</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="5"/>
+        <v>15944121000</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="6"/>
+        <v>15965010000</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="7"/>
+        <v>15903700000</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="8"/>
+        <v>15020400000</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="9"/>
+        <v>15941823210</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="10"/>
+        <v>5.6505149978319906</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="11"/>
+        <v>10.202537988626114</v>
+      </c>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <v>500</v>
+      </c>
+      <c r="U24" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCEADCE-5FA6-4FA3-8993-3F39006CBF67}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D1" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="G1" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1">
+        <v>760</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3350</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12900</v>
+      </c>
+      <c r="G2" s="1">
+        <v>47500</v>
+      </c>
+      <c r="H2" s="1">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>120</v>
+      </c>
+      <c r="D3" s="1">
+        <v>790</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3450</v>
+      </c>
+      <c r="F3" s="1">
+        <v>13000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>48000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>176500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>135</v>
+      </c>
+      <c r="D4" s="1">
+        <v>820</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3500</v>
+      </c>
+      <c r="F4" s="1">
+        <v>13300</v>
+      </c>
+      <c r="G4" s="1">
+        <v>48500</v>
+      </c>
+      <c r="H4" s="1">
+        <v>178000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>170</v>
+      </c>
+      <c r="D5" s="1">
+        <v>900</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3800</v>
+      </c>
+      <c r="F5" s="1">
+        <v>13600</v>
+      </c>
+      <c r="G5" s="1">
+        <v>49000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>179000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>217</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5100</v>
+      </c>
+      <c r="F6" s="1">
+        <v>13800</v>
+      </c>
+      <c r="G6" s="1">
+        <v>53000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>310</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6700</v>
+      </c>
+      <c r="F7" s="1">
+        <v>14500</v>
+      </c>
+      <c r="G7" s="1">
+        <v>62000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>455</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>17000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>76000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>700</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2300</v>
+      </c>
+      <c r="E9" s="1">
+        <v>13000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>93000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3150</v>
+      </c>
+      <c r="E10" s="1">
+        <v>19000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>26000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>130000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1700</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4700</v>
+      </c>
+      <c r="E11" s="1">
+        <v>28000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>35000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>180000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2650</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7200</v>
+      </c>
+      <c r="E12" s="1">
+        <v>41000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>47000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>260000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>760000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>57000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>67000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>400000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>83000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>98000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>620000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>24500</v>
+      </c>
+      <c r="E15" s="1">
+        <v>130000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>150000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13500</v>
+      </c>
+      <c r="D16" s="1">
+        <v>35000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>200000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9">
+        <v>20500</v>
+      </c>
+      <c r="D17" s="9">
+        <v>54000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>280000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9">
+        <v>30500</v>
+      </c>
+      <c r="D18" s="1">
+        <v>83000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>440000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>115000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>680000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>730000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>67000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>168000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>250000</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>365000</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
+        <v>215000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>540000</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <v>320000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>800000</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
+        <v>500000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
+        <v>800000</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>